--- a/data/xlsx/2024-22.xlsx
+++ b/data/xlsx/2024-22.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dnanto/GitHub/broomball/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4519E3E3-2F5B-F34D-9549-39A3A955484F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F799936A-7957-484F-BA13-58342F7FA440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{CFC18D2C-7E2E-F84F-9241-4C3195FDD139}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="5" xr2:uid="{CFC18D2C-7E2E-F84F-9241-4C3195FDD139}"/>
   </bookViews>
   <sheets>
     <sheet name="team" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="2-1" sheetId="4" r:id="rId4"/>
     <sheet name="3-1" sheetId="5" r:id="rId5"/>
     <sheet name="4-1" sheetId="6" r:id="rId6"/>
+    <sheet name="5-1" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="109">
   <si>
     <t>team</t>
   </si>
@@ -350,6 +351,24 @@
   </si>
   <si>
     <t>Free Agent 2024-22</t>
+  </si>
+  <si>
+    <t>2024-06-11</t>
+  </si>
+  <si>
+    <t>09:54</t>
+  </si>
+  <si>
+    <t>08:59</t>
+  </si>
+  <si>
+    <t>16:45</t>
+  </si>
+  <si>
+    <t>14:27</t>
+  </si>
+  <si>
+    <t>07:02</t>
   </si>
 </sst>
 </file>
@@ -391,11 +410,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -732,7 +750,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4A3ABCE-762A-B34E-90D6-EC3013A4F5DE}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -803,27 +821,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A23C1D1-33BE-B143-B147-218D1F1162F5}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="3"/>
+    <col min="1" max="1" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>75</v>
       </c>
     </row>
@@ -837,7 +857,7 @@
       <c r="C2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>76</v>
       </c>
     </row>
@@ -963,7 +983,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37C8881F-E589-5746-805B-AD3A193AACB7}">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1887,9 +1909,9 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CFDD197-0845-C743-8A48-23E34B8A82B3}">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1932,6 +1954,279 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA661176-8B19-284E-BEF6-B84774ABA110}">
+  <dimension ref="A1:L13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">

--- a/data/xlsx/2024-22.xlsx
+++ b/data/xlsx/2024-22.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dnanto/GitHub/broomball/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F799936A-7957-484F-BA13-58342F7FA440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B374230A-D0E4-8841-9993-51DF481B1745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="5" xr2:uid="{CFC18D2C-7E2E-F84F-9241-4C3195FDD139}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="8" xr2:uid="{CFC18D2C-7E2E-F84F-9241-4C3195FDD139}"/>
   </bookViews>
   <sheets>
     <sheet name="team" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,8 @@
     <sheet name="3-1" sheetId="5" r:id="rId5"/>
     <sheet name="4-1" sheetId="6" r:id="rId6"/>
     <sheet name="5-1" sheetId="7" r:id="rId7"/>
+    <sheet name="6-1" sheetId="8" r:id="rId8"/>
+    <sheet name="7-1" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="119">
   <si>
     <t>team</t>
   </si>
@@ -347,9 +349,6 @@
     <t>02:15</t>
   </si>
   <si>
-    <t>Will R. Yurasko</t>
-  </si>
-  <si>
     <t>Free Agent 2024-22</t>
   </si>
   <si>
@@ -369,25 +368,52 @@
   </si>
   <si>
     <t>07:02</t>
+  </si>
+  <si>
+    <t>2024-06-25</t>
+  </si>
+  <si>
+    <t>10:05</t>
+  </si>
+  <si>
+    <t>05:08</t>
+  </si>
+  <si>
+    <t>2024-07-02</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>14:35</t>
+  </si>
+  <si>
+    <t>05:53</t>
+  </si>
+  <si>
+    <t>02:08</t>
+  </si>
+  <si>
+    <t>12:25</t>
+  </si>
+  <si>
+    <t>00:29</t>
+  </si>
+  <si>
+    <t>Too Many Men on the Ice</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -410,10 +436,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -806,7 +831,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>75</v>
@@ -821,153 +846,150 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A23C1D1-33BE-B143-B147-218D1F1162F5}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="A7" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="A8" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="A9" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+      <c r="A10" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="A11" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+      <c r="A12" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" t="s">
         <v>14</v>
       </c>
     </row>
@@ -984,7 +1006,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1911,7 +1933,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CFDD197-0845-C743-8A48-23E34B8A82B3}">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1957,7 +1979,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>47</v>
@@ -2012,7 +2034,7 @@
         <v>49</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>37</v>
@@ -2047,7 +2069,7 @@
         <v>49</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>29</v>
@@ -2082,7 +2104,7 @@
         <v>50</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>23</v>
@@ -2117,7 +2139,7 @@
         <v>50</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>17</v>
@@ -2152,7 +2174,7 @@
         <v>50</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>35</v>
@@ -2182,9 +2204,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA661176-8B19-284E-BEF6-B84774ABA110}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2339,7 +2359,7 @@
         <v>99</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>6</v>
@@ -2402,4 +2422,559 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B78DAD6-A875-FE48-B3B7-FD1F22F26FD1}">
+  <dimension ref="A1:L10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="3.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6248ECC-44A8-1549-82AF-92860D8EE2FD}">
+  <dimension ref="A1:L15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/xlsx/2024-22.xlsx
+++ b/data/xlsx/2024-22.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dnanto/GitHub/broomball/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B374230A-D0E4-8841-9993-51DF481B1745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E8D904C-2314-8641-B8A4-2202B717367F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="8" xr2:uid="{CFC18D2C-7E2E-F84F-9241-4C3195FDD139}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="1" xr2:uid="{CFC18D2C-7E2E-F84F-9241-4C3195FDD139}"/>
   </bookViews>
   <sheets>
     <sheet name="team" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,12 @@
     <sheet name="5-1" sheetId="7" r:id="rId7"/>
     <sheet name="6-1" sheetId="8" r:id="rId8"/>
     <sheet name="7-1" sheetId="9" r:id="rId9"/>
+    <sheet name="8-1" sheetId="10" r:id="rId10"/>
+    <sheet name="9-1" sheetId="11" r:id="rId11"/>
+    <sheet name="10-1" sheetId="12" r:id="rId12"/>
+    <sheet name="11-1" sheetId="13" r:id="rId13"/>
+    <sheet name="12-1" sheetId="14" r:id="rId14"/>
+    <sheet name="13-1" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -44,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="161">
   <si>
     <t>team</t>
   </si>
@@ -401,16 +407,149 @@
   </si>
   <si>
     <t>Too Many Men on the Ice</t>
+  </si>
+  <si>
+    <t>2024-07-09</t>
+  </si>
+  <si>
+    <t>17:05</t>
+  </si>
+  <si>
+    <t>12:20</t>
+  </si>
+  <si>
+    <t>06:10</t>
+  </si>
+  <si>
+    <t>03:20</t>
+  </si>
+  <si>
+    <t>17:20</t>
+  </si>
+  <si>
+    <t>15:20</t>
+  </si>
+  <si>
+    <t>08:30</t>
+  </si>
+  <si>
+    <t>05:15</t>
+  </si>
+  <si>
+    <t>08:40</t>
+  </si>
+  <si>
+    <t>00:30</t>
+  </si>
+  <si>
+    <t>18:05</t>
+  </si>
+  <si>
+    <t>01:00</t>
+  </si>
+  <si>
+    <t>00:20</t>
+  </si>
+  <si>
+    <t>High Broom</t>
+  </si>
+  <si>
+    <t>Unsportsmanlike Conduct</t>
+  </si>
+  <si>
+    <t>2024-07-16</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>08:55</t>
+  </si>
+  <si>
+    <t>09:10</t>
+  </si>
+  <si>
+    <t>05:10</t>
+  </si>
+  <si>
+    <t>2024-07-23</t>
+  </si>
+  <si>
+    <t>10:26</t>
+  </si>
+  <si>
+    <t>00:13.6</t>
+  </si>
+  <si>
+    <t>2024-07-13</t>
+  </si>
+  <si>
+    <t>15:55</t>
+  </si>
+  <si>
+    <t>05:20</t>
+  </si>
+  <si>
+    <t>18:15</t>
+  </si>
+  <si>
+    <t>08:10</t>
+  </si>
+  <si>
+    <t>16:10</t>
+  </si>
+  <si>
+    <t>11:45</t>
+  </si>
+  <si>
+    <t>07:15</t>
+  </si>
+  <si>
+    <t>07:30</t>
+  </si>
+  <si>
+    <t>14:30</t>
+  </si>
+  <si>
+    <t>12:45</t>
+  </si>
+  <si>
+    <t>00:35</t>
+  </si>
+  <si>
+    <t>Interference</t>
+  </si>
+  <si>
+    <t>2024-08-13</t>
+  </si>
+  <si>
+    <t>2024-08-06</t>
+  </si>
+  <si>
+    <t>16:25</t>
+  </si>
+  <si>
+    <t>03:30</t>
+  </si>
+  <si>
+    <t>13:00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -436,9 +575,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -842,11 +982,2195 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92CA5162-1095-C741-A34B-0497DE91CBA2}">
+  <dimension ref="A1:L23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" t="s">
+        <v>27</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34434862-A3BB-EF48-8F4C-F96541E6E42E}">
+  <dimension ref="A1:L13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E013CB0-5BC4-4745-AEBA-3F53A9874972}">
+  <dimension ref="A1:L10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{977BABB5-6BDC-A944-A1D9-9D5110BF48AE}">
+  <dimension ref="A1:L16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D5B4BAF-19EA-7045-8E6F-5EE918A7CEB3}">
+  <dimension ref="A1:L17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13A7C2BF-1682-C04D-BBE9-8BA01786D2E2}">
+  <dimension ref="A1:L14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A23C1D1-33BE-B143-B147-218D1F1162F5}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -991,6 +3315,11 @@
       </c>
       <c r="C12" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -2428,9 +4757,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B78DAD6-A875-FE48-B3B7-FD1F22F26FD1}">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2655,7 +4982,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6248ECC-44A8-1549-82AF-92860D8EE2FD}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>

--- a/data/xlsx/2024-22.xlsx
+++ b/data/xlsx/2024-22.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dnanto/GitHub/broomball/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E8D904C-2314-8641-B8A4-2202B717367F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C8F0374-7613-7F48-9E4C-A66614D279F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="1" xr2:uid="{CFC18D2C-7E2E-F84F-9241-4C3195FDD139}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="9" xr2:uid="{CFC18D2C-7E2E-F84F-9241-4C3195FDD139}"/>
   </bookViews>
   <sheets>
     <sheet name="team" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="160">
   <si>
     <t>team</t>
   </si>
@@ -449,9 +449,6 @@
   </si>
   <si>
     <t>00:20</t>
-  </si>
-  <si>
-    <t>High Broom</t>
   </si>
   <si>
     <t>Unsportsmanlike Conduct</t>
@@ -986,8 +983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92CA5162-1095-C741-A34B-0497DE91CBA2}">
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1467,7 +1464,7 @@
         <v>17</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>133</v>
+        <v>92</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>50</v>
@@ -1525,7 +1522,7 @@
         <v>28</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>50</v>
@@ -1610,7 +1607,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>47</v>
@@ -1658,10 +1655,10 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>80</v>
@@ -1716,7 +1713,7 @@
         <v>49</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>14</v>
@@ -1754,7 +1751,7 @@
         <v>50</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>17</v>
@@ -1821,13 +1818,13 @@
         <v>50</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>37</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>133</v>
+        <v>92</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>50</v>
@@ -1883,7 +1880,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>47</v>
@@ -1934,7 +1931,7 @@
         <v>65</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>80</v>
@@ -1989,7 +1986,7 @@
         <v>50</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E9" t="s">
         <v>12</v>
@@ -2027,7 +2024,7 @@
         <v>50</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>23</v>
@@ -2095,7 +2092,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>47</v>
@@ -2201,7 +2198,7 @@
         <v>49</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>17</v>
@@ -2239,7 +2236,7 @@
         <v>49</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>17</v>
@@ -2277,7 +2274,7 @@
         <v>50</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>35</v>
@@ -2312,7 +2309,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>23</v>
@@ -2417,13 +2414,13 @@
         <v>50</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>133</v>
+        <v>92</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>50</v>
@@ -2481,7 +2478,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>47</v>
@@ -2587,7 +2584,7 @@
         <v>49</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>14</v>
@@ -2625,7 +2622,7 @@
         <v>49</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>14</v>
@@ -2663,7 +2660,7 @@
         <v>50</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>34</v>
@@ -2698,7 +2695,7 @@
         <v>50</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>27</v>
@@ -2806,13 +2803,13 @@
         <v>49</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>133</v>
+        <v>92</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>50</v>
@@ -2835,13 +2832,13 @@
         <v>50</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>30</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>50</v>
@@ -2897,7 +2894,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>47</v>
@@ -3003,7 +3000,7 @@
         <v>49</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>34</v>
@@ -3041,7 +3038,7 @@
         <v>49</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>14</v>
@@ -3146,7 +3143,7 @@
         <v>50</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>118</v>
@@ -3170,7 +3167,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A23C1D1-33BE-B143-B147-218D1F1162F5}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
